--- a/examples/Cpp/basic/兵种.xlsx
+++ b/examples/Cpp/basic/兵种.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17032" windowHeight="8085"/>
+    <workbookView windowWidth="18697" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="meta" sheetId="3" r:id="rId2"/>
+    <sheet name="@meta" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$33</definedName>
@@ -283,12 +283,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,29 +300,23 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,29 +335,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,8 +381,38 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,25 +426,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,23 +435,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,19 +450,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,13 +480,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,43 +498,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,19 +528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,7 +552,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,49 +618,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,19 +647,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,8 +656,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,6 +716,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -724,175 +741,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1234,7 +1227,7 @@
   <sheetPr/>
   <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A44" sqref="$A44:$XFD44"/>
     </sheetView>
   </sheetViews>
@@ -4068,7 +4061,7 @@
   <sheetPr/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/examples/Cpp/basic/兵种.xlsx
+++ b/examples/Cpp/basic/兵种.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\game-repo\TAKSi\examples\Cpp\basic\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="18697" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -221,74 +226,303 @@
     <t>程序导出参数</t>
   </si>
   <si>
-    <t>class-name</t>
-  </si>
-  <si>
     <t>SoldierPropertyDefine</t>
   </si>
   <si>
-    <t>class-comment</t>
-  </si>
-  <si>
     <t>兵种属性配置</t>
   </si>
   <si>
-    <t>type-row</t>
-  </si>
-  <si>
     <t>类型行</t>
   </si>
   <si>
-    <t>name-row</t>
-  </si>
-  <si>
     <t>名字行</t>
   </si>
   <si>
-    <t>comment-row</t>
-  </si>
-  <si>
     <t>注释行</t>
   </si>
   <si>
-    <t>data-start-row</t>
-  </si>
-  <si>
     <t>数据从哪一行开始</t>
   </si>
   <si>
-    <t>data-end-row</t>
-  </si>
-  <si>
     <t>数据从哪一行结束</t>
   </si>
   <si>
-    <t>get-keys</t>
-  </si>
-  <si>
     <t>1,2</t>
   </si>
   <si>
     <t>Get函数包含的参数（列）</t>
   </si>
   <si>
-    <t>range-keys</t>
-  </si>
-  <si>
     <t>GetRange函数包含的参数（列）</t>
+  </si>
+  <si>
+    <t>class_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comment</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keys</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keys</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,345 +531,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -643,308 +568,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -962,6 +598,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1219,43 +858,43 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A44" sqref="$A44:$XFD44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.3716814159292" customWidth="1"/>
-    <col min="3" max="3" width="9.50442477876106" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="15.7522123893805" customWidth="1"/>
-    <col min="6" max="6" width="10.1238938053097" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.6283185840708" customWidth="1"/>
-    <col min="9" max="9" width="19.8761061946903" customWidth="1"/>
-    <col min="10" max="10" width="19.3716814159292" customWidth="1"/>
-    <col min="11" max="11" width="20.5044247787611" customWidth="1"/>
-    <col min="12" max="12" width="19.3716814159292" customWidth="1"/>
-    <col min="13" max="13" width="20.5044247787611" customWidth="1"/>
-    <col min="14" max="14" width="14.2477876106195" customWidth="1"/>
-    <col min="17" max="17" width="10.5044247787611" customWidth="1"/>
-    <col min="19" max="19" width="9.50442477876106" customWidth="1"/>
-    <col min="20" max="20" width="16.6283185840708" customWidth="1"/>
-    <col min="21" max="21" width="12.7522123893805" customWidth="1"/>
-    <col min="22" max="22" width="13.8761061946903" customWidth="1"/>
-    <col min="23" max="23" width="9.50442477876106" customWidth="1"/>
-    <col min="24" max="24" width="12.5044247787611" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="19.875" customWidth="1"/>
+    <col min="10" max="10" width="19.375" customWidth="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1"/>
+    <col min="12" max="12" width="19.375" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
+    <col min="14" max="14" width="14.25" customWidth="1"/>
+    <col min="17" max="17" width="10.5" customWidth="1"/>
+    <col min="19" max="19" width="9.5" customWidth="1"/>
+    <col min="20" max="20" width="16.625" customWidth="1"/>
+    <col min="21" max="21" width="12.75" customWidth="1"/>
+    <col min="22" max="22" width="13.875" customWidth="1"/>
+    <col min="23" max="23" width="9.5" customWidth="1"/>
+    <col min="24" max="24" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1329,7 +968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1403,7 +1042,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1477,7 +1116,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -1542,7 +1181,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1601,13 +1240,13 @@
         <v>0.2</v>
       </c>
       <c r="W5">
-        <v>5.029</v>
+        <v>5.0289999999999999</v>
       </c>
       <c r="X5">
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1666,13 +1305,13 @@
         <v>0.2</v>
       </c>
       <c r="W6">
-        <v>5.358</v>
+        <v>5.3579999999999997</v>
       </c>
       <c r="X6">
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1731,13 +1370,13 @@
         <v>0.2</v>
       </c>
       <c r="W7">
-        <v>5.687</v>
+        <v>5.6870000000000003</v>
       </c>
       <c r="X7">
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1802,7 +1441,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -1861,13 +1500,13 @@
         <v>0.2</v>
       </c>
       <c r="W9">
-        <v>6.345</v>
+        <v>6.3449999999999998</v>
       </c>
       <c r="X9">
         <v>3.9</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -1926,13 +1565,13 @@
         <v>0.2</v>
       </c>
       <c r="W10">
-        <v>6.674</v>
+        <v>6.6740000000000004</v>
       </c>
       <c r="X10">
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -1991,13 +1630,13 @@
         <v>0.2</v>
       </c>
       <c r="W11">
-        <v>7.003</v>
+        <v>7.0030000000000001</v>
       </c>
       <c r="X11">
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -2056,13 +1695,13 @@
         <v>0.2</v>
       </c>
       <c r="W12">
-        <v>7.332</v>
+        <v>7.3319999999999999</v>
       </c>
       <c r="X12">
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -2121,13 +1760,13 @@
         <v>0.2</v>
       </c>
       <c r="W13">
-        <v>7.661</v>
+        <v>7.6609999999999996</v>
       </c>
       <c r="X13">
         <v>3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -2186,13 +1825,13 @@
         <v>0.1</v>
       </c>
       <c r="W14">
-        <v>3.531</v>
+        <v>3.5310000000000001</v>
       </c>
       <c r="X14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -2257,7 +1896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -2316,13 +1955,13 @@
         <v>0.1</v>
       </c>
       <c r="W16">
-        <v>3.993</v>
+        <v>3.9929999999999999</v>
       </c>
       <c r="X16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -2381,13 +2020,13 @@
         <v>0.1</v>
       </c>
       <c r="W17">
-        <v>4.224</v>
+        <v>4.2240000000000002</v>
       </c>
       <c r="X17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -2446,13 +2085,13 @@
         <v>0.1</v>
       </c>
       <c r="W18">
-        <v>4.455</v>
+        <v>4.4550000000000001</v>
       </c>
       <c r="X18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2511,13 +2150,13 @@
         <v>0.1</v>
       </c>
       <c r="W19">
-        <v>4.686</v>
+        <v>4.6859999999999999</v>
       </c>
       <c r="X19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -2576,13 +2215,13 @@
         <v>0.1</v>
       </c>
       <c r="W20">
-        <v>4.917</v>
+        <v>4.9169999999999998</v>
       </c>
       <c r="X20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -2641,13 +2280,13 @@
         <v>0.1</v>
       </c>
       <c r="W21">
-        <v>5.148</v>
+        <v>5.1479999999999997</v>
       </c>
       <c r="X21">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -2706,13 +2345,13 @@
         <v>0.1</v>
       </c>
       <c r="W22">
-        <v>5.379</v>
+        <v>5.3789999999999996</v>
       </c>
       <c r="X22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -2777,7 +2416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -2836,13 +2475,13 @@
         <v>2</v>
       </c>
       <c r="W24">
-        <v>8.208</v>
+        <v>8.2080000000000002</v>
       </c>
       <c r="X24">
         <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -2901,13 +2540,13 @@
         <v>2</v>
       </c>
       <c r="W25">
-        <v>8.712</v>
+        <v>8.7119999999999997</v>
       </c>
       <c r="X25">
         <v>3.5</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -2966,13 +2605,13 @@
         <v>2</v>
       </c>
       <c r="W26">
-        <v>9.216</v>
+        <v>9.2159999999999993</v>
       </c>
       <c r="X26">
         <v>3.5</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -3031,13 +2670,13 @@
         <v>2</v>
       </c>
       <c r="W27">
-        <v>9.72</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="X27">
         <v>3.5</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -3102,7 +2741,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -3167,7 +2806,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -3226,13 +2865,13 @@
         <v>2</v>
       </c>
       <c r="W30">
-        <v>11.232</v>
+        <v>11.231999999999999</v>
       </c>
       <c r="X30">
         <v>3.5</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -3291,13 +2930,13 @@
         <v>2</v>
       </c>
       <c r="W31">
-        <v>11.736</v>
+        <v>11.736000000000001</v>
       </c>
       <c r="X31">
         <v>3.5</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -3362,7 +3001,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -3427,7 +3066,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -3486,10 +3125,10 @@
         <v>4.84</v>
       </c>
       <c r="X34">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -3548,10 +3187,10 @@
         <v>5.12</v>
       </c>
       <c r="X35">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -3610,10 +3249,10 @@
         <v>5.4</v>
       </c>
       <c r="X36">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -3672,10 +3311,10 @@
         <v>5.68</v>
       </c>
       <c r="X37">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -3734,10 +3373,10 @@
         <v>5.96</v>
       </c>
       <c r="X38">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -3796,10 +3435,10 @@
         <v>6.24</v>
       </c>
       <c r="X39">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -3858,10 +3497,10 @@
         <v>6.52</v>
       </c>
       <c r="X40">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -3920,10 +3559,10 @@
         <v>6.8</v>
       </c>
       <c r="X41">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -3982,10 +3621,10 @@
         <v>7.08</v>
       </c>
       <c r="X42">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -4044,135 +3683,134 @@
         <v>7.36</v>
       </c>
       <c r="X43">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="Q2:T2">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1238938053097" customWidth="1"/>
-    <col min="2" max="2" width="23.8761061946903" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.2477876106195" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>73</v>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>77</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B8" s="1">
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/examples/Cpp/basic/兵种.xlsx
+++ b/examples/Cpp/basic/兵种.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="89">
   <si>
     <t>string</t>
   </si>
@@ -85,16 +85,7 @@
     <t>Hp</t>
   </si>
   <si>
-    <t>BombLoad</t>
-  </si>
-  <si>
     <t>Hurt</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>TriggerInterval</t>
   </si>
   <si>
     <t>SearchScope</t>
@@ -515,6 +506,30 @@
       </rPr>
       <t>keys</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skipped_fields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerInterval</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过这些列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BombLoad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BombLoad, Duration, TriggerInterval</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -866,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1018,119 +1033,119 @@
         <v>19</v>
       </c>
       <c r="Q2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2" t="s">
         <v>20</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" t="s">
+        <v>84</v>
+      </c>
+      <c r="U2" t="s">
         <v>21</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>22</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>23</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>24</v>
-      </c>
-      <c r="V2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" t="s">
-        <v>26</v>
-      </c>
-      <c r="X2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>36</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>37</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>38</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>39</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>40</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>41</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>42</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3" t="s">
         <v>44</v>
       </c>
-      <c r="R3" t="s">
+      <c r="U3" t="s">
         <v>45</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>46</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>47</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>48</v>
-      </c>
-      <c r="V3" t="s">
-        <v>49</v>
-      </c>
-      <c r="W3" t="s">
-        <v>50</v>
-      </c>
-      <c r="X3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1145,13 +1160,13 @@
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K4">
         <v>1500</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M4">
         <v>80</v>
@@ -1183,19 +1198,19 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1210,13 +1225,13 @@
         <v>250</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K5">
         <v>6000</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M5">
         <v>270</v>
@@ -1248,19 +1263,19 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1275,13 +1290,13 @@
         <v>1420</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K6">
         <v>11600</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M6">
         <v>460</v>
@@ -1313,19 +1328,19 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -1340,13 +1355,13 @@
         <v>2290</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K7">
         <v>18700</v>
       </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M7">
         <v>650</v>
@@ -1378,19 +1393,19 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1405,13 +1420,13 @@
         <v>2870</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K8">
         <v>30000</v>
       </c>
       <c r="L8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M8">
         <v>900</v>
@@ -1443,19 +1458,19 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -1470,13 +1485,13 @@
         <v>4450</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K9">
         <v>50000</v>
       </c>
       <c r="L9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M9">
         <v>1250</v>
@@ -1508,19 +1523,19 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F10">
         <v>7</v>
@@ -1535,13 +1550,13 @@
         <v>7160</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K10">
         <v>80000</v>
       </c>
       <c r="L10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M10">
         <v>1600</v>
@@ -1573,19 +1588,19 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F11">
         <v>8</v>
@@ -1600,13 +1615,13 @@
         <v>14300</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K11">
         <v>120000</v>
       </c>
       <c r="L11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M11">
         <v>1800</v>
@@ -1638,19 +1653,19 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F12">
         <v>9</v>
@@ -1665,13 +1680,13 @@
         <v>19100</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K12">
         <v>170000</v>
       </c>
       <c r="L12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M12">
         <v>1700</v>
@@ -1703,19 +1718,19 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -1730,13 +1745,13 @@
         <v>34400</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K13">
         <v>350000</v>
       </c>
       <c r="L13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M13">
         <v>3150</v>
@@ -1768,19 +1783,19 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -1795,13 +1810,13 @@
         <v>2290</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K14">
         <v>14960</v>
       </c>
       <c r="L14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M14">
         <v>750</v>
@@ -1833,19 +1848,19 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -1860,13 +1875,13 @@
         <v>2870</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K15">
         <v>24000</v>
       </c>
       <c r="L15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M15">
         <v>1080</v>
@@ -1898,19 +1913,19 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -1925,13 +1940,13 @@
         <v>4450</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K16">
         <v>39600</v>
       </c>
       <c r="L16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M16">
         <v>1580</v>
@@ -1963,19 +1978,19 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F17">
         <v>7</v>
@@ -1990,13 +2005,13 @@
         <v>7160</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K17">
         <v>62880</v>
       </c>
       <c r="L17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M17">
         <v>2200</v>
@@ -2028,19 +2043,19 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -2055,13 +2070,13 @@
         <v>14300</v>
       </c>
       <c r="J18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K18">
         <v>98640</v>
       </c>
       <c r="L18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M18">
         <v>2960</v>
@@ -2093,19 +2108,19 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F19">
         <v>9</v>
@@ -2120,13 +2135,13 @@
         <v>19100</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K19">
         <v>133920</v>
       </c>
       <c r="L19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M19">
         <v>3350</v>
@@ -2158,19 +2173,19 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B20">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -2185,13 +2200,13 @@
         <v>34400</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K20">
         <v>282560</v>
       </c>
       <c r="L20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M20">
         <v>5650</v>
@@ -2223,19 +2238,19 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F21">
         <v>11</v>
@@ -2250,13 +2265,13 @@
         <v>56900</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K21">
         <v>432800</v>
       </c>
       <c r="L21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M21">
         <v>6490</v>
@@ -2288,19 +2303,19 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F22">
         <v>11</v>
@@ -2315,13 +2330,13 @@
         <v>58800</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K22">
         <v>578680</v>
       </c>
       <c r="L22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M22">
         <v>5790</v>
@@ -2353,19 +2368,19 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B23">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F23">
         <v>12</v>
@@ -2380,13 +2395,13 @@
         <v>60700</v>
       </c>
       <c r="J23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K23">
         <v>724560</v>
       </c>
       <c r="L23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M23">
         <v>6520</v>
@@ -2418,19 +2433,19 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -2445,13 +2460,13 @@
         <v>2870</v>
       </c>
       <c r="J24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K24">
         <v>45000</v>
       </c>
       <c r="L24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M24">
         <v>2250</v>
@@ -2483,19 +2498,19 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -2510,13 +2525,13 @@
         <v>4450</v>
       </c>
       <c r="J25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K25">
         <v>74250</v>
       </c>
       <c r="L25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M25">
         <v>3340</v>
@@ -2548,19 +2563,19 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F26">
         <v>7</v>
@@ -2575,13 +2590,13 @@
         <v>7160</v>
       </c>
       <c r="J26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K26">
         <v>117900</v>
       </c>
       <c r="L26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M26">
         <v>4720</v>
@@ -2613,19 +2628,19 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F27">
         <v>8</v>
@@ -2640,13 +2655,13 @@
         <v>14300</v>
       </c>
       <c r="J27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K27">
         <v>184950</v>
       </c>
       <c r="L27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M27">
         <v>6470</v>
@@ -2678,19 +2693,19 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F28">
         <v>9</v>
@@ -2705,13 +2720,13 @@
         <v>19100</v>
       </c>
       <c r="J28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K28">
         <v>251100</v>
       </c>
       <c r="L28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M28">
         <v>7530</v>
@@ -2743,19 +2758,19 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B29">
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F29">
         <v>10</v>
@@ -2770,13 +2785,13 @@
         <v>34400</v>
       </c>
       <c r="J29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K29">
         <v>529800</v>
       </c>
       <c r="L29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M29">
         <v>13250</v>
@@ -2808,19 +2823,19 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B30">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F30">
         <v>11</v>
@@ -2835,13 +2850,13 @@
         <v>56900</v>
       </c>
       <c r="J30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K30">
         <v>811500</v>
       </c>
       <c r="L30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M30">
         <v>16230</v>
@@ -2873,19 +2888,19 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B31">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F31">
         <v>11</v>
@@ -2900,13 +2915,13 @@
         <v>58800</v>
       </c>
       <c r="J31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K31">
         <v>1085025</v>
       </c>
       <c r="L31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M31">
         <v>16300</v>
@@ -2938,19 +2953,19 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B32">
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F32">
         <v>12</v>
@@ -2965,13 +2980,13 @@
         <v>60700</v>
       </c>
       <c r="J32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K32">
         <v>1358550</v>
       </c>
       <c r="L32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M32">
         <v>13600</v>
@@ -3003,19 +3018,19 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B33">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F33">
         <v>13</v>
@@ -3030,13 +3045,13 @@
         <v>66900</v>
       </c>
       <c r="J33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K33">
         <v>2189100</v>
       </c>
       <c r="L33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M33">
         <v>19700</v>
@@ -3068,19 +3083,19 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F34">
         <v>15</v>
@@ -3095,13 +3110,13 @@
         <v>79300</v>
       </c>
       <c r="J34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K34">
         <v>5374950</v>
       </c>
       <c r="L34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M34">
         <v>268700</v>
@@ -3130,19 +3145,19 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F35">
         <v>16</v>
@@ -3157,13 +3172,13 @@
         <v>91900</v>
       </c>
       <c r="J35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K35">
         <v>7627800</v>
       </c>
       <c r="L35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M35">
         <v>343300</v>
@@ -3192,19 +3207,19 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F36">
         <v>16</v>
@@ -3219,13 +3234,13 @@
         <v>106950</v>
       </c>
       <c r="J36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K36">
         <v>9373500</v>
       </c>
       <c r="L36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M36">
         <v>374900</v>
@@ -3254,19 +3269,19 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B37">
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F37">
         <v>17</v>
@@ -3281,13 +3296,13 @@
         <v>122000</v>
       </c>
       <c r="J37" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K37">
         <v>11119200</v>
       </c>
       <c r="L37" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M37">
         <v>389000</v>
@@ -3316,19 +3331,19 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F38">
         <v>17</v>
@@ -3343,13 +3358,13 @@
         <v>134500</v>
       </c>
       <c r="J38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K38">
         <v>12795900</v>
       </c>
       <c r="L38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M38">
         <v>384000</v>
@@ -3378,19 +3393,19 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B39">
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F39">
         <v>18</v>
@@ -3405,13 +3420,13 @@
         <v>147000</v>
       </c>
       <c r="J39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K39">
         <v>14472600</v>
       </c>
       <c r="L39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M39">
         <v>362000</v>
@@ -3440,19 +3455,19 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B40">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F40">
         <v>18</v>
@@ -3467,13 +3482,13 @@
         <v>162500</v>
       </c>
       <c r="J40" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K40">
         <v>16078800</v>
       </c>
       <c r="L40" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M40">
         <v>322000</v>
@@ -3502,19 +3517,19 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B41">
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F41">
         <v>19</v>
@@ -3529,13 +3544,13 @@
         <v>178000</v>
       </c>
       <c r="J41" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K41">
         <v>17685000</v>
       </c>
       <c r="L41" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M41">
         <v>265000</v>
@@ -3564,19 +3579,19 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B42">
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F42">
         <v>19</v>
@@ -3591,13 +3606,13 @@
         <v>205500</v>
       </c>
       <c r="J42" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K42">
         <v>21375900</v>
       </c>
       <c r="L42" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M42">
         <v>214000</v>
@@ -3626,19 +3641,19 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B43">
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F43">
         <v>20</v>
@@ -3653,13 +3668,13 @@
         <v>233000</v>
       </c>
       <c r="J43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K43">
         <v>25066800</v>
       </c>
       <c r="L43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M43">
         <v>226000</v>
@@ -3697,115 +3712,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1">
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
